--- a/2018/tp_20181108.xlsx
+++ b/2018/tp_20181108.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ESB13240/Dropbox/Social/VoteSimulator/2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8966FC4B-1E2B-6349-B29B-B8364E3B5A7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916ACF2E-5F93-6543-BBBE-0DBDA3DE044F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6276,8 +6276,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FB291D-2100-9743-8874-FB22976A34CB}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:W14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
